--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_35_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_35_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.4739666212862117, 2.1191635793877177]</t>
+          <t>[1.4579491812827206, 2.135181019391209]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>6.23945339839338e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>6.23945339839338e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-2.729632055371312</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.918316298830158, -2.5409478119124653]</t>
+          <t>[-2.9308952483940818, -2.5283688623485414]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3293474758560542, 0.6926555385793483]</t>
+          <t>[0.3294122505164212, 0.6925907639189812]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.760933075142475e-07</v>
+        <v>9.694078122457483e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>9.760933075142475e-07</v>
+        <v>9.694078122457483e-07</v>
       </c>
       <c r="W2" t="n">
         <v>10.36994994995021</v>
       </c>
       <c r="X2" t="n">
-        <v>9.653133133133379</v>
+        <v>9.605345345345587</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.08676676676705</v>
+        <v>11.13455455455484</v>
       </c>
     </row>
   </sheetData>
